--- a/medicine/Enfance/Penny_Warner/Penny_Warner.xlsx
+++ b/medicine/Enfance/Penny_Warner/Penny_Warner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Penny Warner, née le 14 avril 1947 à Okinawa, au Japon, est une femme de lettres américaine, auteure de romans policiers et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle naît au Japon, alors que son père est membre d'une commission sur l'énergie atomique qui se penche sur les conséquences des bombes larguées sur Hiroshima et Nagasaki. Elle fait ses études aux États-Unis et détient une maîtrise universitaire en éducation spécialisée.
-En 1997, elle publie son premier roman, Dead Body Language, grâce auquel elle est lauréate du prix Macavity 1998 du meilleur premier roman[1]. 
-Elle écrit également de la littérature d'enfance et de jeunesse et remporte à trois reprises le prix Agatha de la meilleure œuvre pour enfants et jeunes adultes : en 2001 pour The Mystery of the Haunted Caves ; en 2012 pour The Haunted Lighthouse et en 2014 pour The Mummy's Curse[2]. 
+En 1997, elle publie son premier roman, Dead Body Language, grâce auquel elle est lauréate du prix Macavity 1998 du meilleur premier roman. 
+Elle écrit également de la littérature d'enfance et de jeunesse et remporte à trois reprises le prix Agatha de la meilleure œuvre pour enfants et jeunes adultes : en 2001 pour The Mystery of the Haunted Caves ; en 2012 pour The Haunted Lighthouse et en 2014 pour The Mummy's Curse. 
 </t>
         </is>
       </c>
@@ -546,32 +560,188 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Connor Westphal
-Dead Body Language (1997)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Connor Westphal</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dead Body Language (1997)
 Sign of Foul Play (1997)
 Right to Remain Silent (1998)
 A Quiet Undertaking (2000)
 Blind Side (2001)
 Silence Is Golden (2003)
-Dead Man's Hand (2007)
-Série Party-Planning
-How to Host a Killer Party (2009)
+Dead Man's Hand (2007)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Penny_Warner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penny_Warner</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Party-Planning</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>How to Host a Killer Party (2009)
 How to Crash a Killer Bash (2010)
 How to Survive a Killer Seance (2011)
 How to Party with a Killer Vampire (2011)
-How to Dine on Killer Wine (2012)
-Série Code Busters Club
-The Secret of the Skeleton Key (2011)
+How to Dine on Killer Wine (2012)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Penny_Warner</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penny_Warner</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Code Busters Club</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Secret of the Skeleton Key (2011)
 The Haunted Lighthouse (2012)
 Secret Treasure of Pirate Cove (2013) (autre titre The Mystery of the Pirate's Treasure)
 The Mummy's Curse (2014)
-The Hunt for the Missing Spy (2015)
-Série Troop 13
-The Mystery of the Haunted Caves (2011)
-The Mystery of the Missing Mustangs (2011)
-Autres ouvrages
-The Official Nancy Drew Handbook (2007)
+The Hunt for the Missing Spy (2015)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Penny_Warner</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penny_Warner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Troop 13</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Mystery of the Haunted Caves (2011)
+The Mystery of the Missing Mustangs (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Penny_Warner</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penny_Warner</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Official Nancy Drew Handbook (2007)
 Rock-a-bye Baby (2008)
 Ladies Night (2008)
 Baby Play and Learn (2010)
@@ -582,41 +752,80 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Penny_Warner</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Penny_Warner</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Macavity 1998 du meilleur premier roman pour Dead Body Language
-Prix Agatha 2001 de la meilleure œuvre pour enfants et jeunes adultes pour The Mystery of the Haunted Caves[2]
-Prix Agatha 2012 de la meilleure œuvre pour enfants et jeunes adultes pour The Haunted Lighthouse[2]
-Prix Agatha 2014 de la meilleure œuvre pour enfants et jeunes adultes pour The Mummy's Curse[2]
-Prix Agatha 2016 de la meilleure œuvre pour enfants et jeunes adultes pour The Code Busters Club, Case #6: The Secret of the Puzzle Box[2]
-Nominations
-Prix Agatha 1997 du meilleur premier roman pour Dead Body Language[2]
-Prix Agatha 2007 de la meilleure œuvre de non-fiction pour The Official Nancy Drew Handbook[2]</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Macavity 1998 du meilleur premier roman pour Dead Body Language
+Prix Agatha 2001 de la meilleure œuvre pour enfants et jeunes adultes pour The Mystery of the Haunted Caves
+Prix Agatha 2012 de la meilleure œuvre pour enfants et jeunes adultes pour The Haunted Lighthouse
+Prix Agatha 2014 de la meilleure œuvre pour enfants et jeunes adultes pour The Mummy's Curse
+Prix Agatha 2016 de la meilleure œuvre pour enfants et jeunes adultes pour The Code Busters Club, Case #6: The Secret of the Puzzle Box</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Penny_Warner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Penny_Warner</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Agatha 1997 du meilleur premier roman pour Dead Body Language
+Prix Agatha 2007 de la meilleure œuvre de non-fiction pour The Official Nancy Drew Handbook</t>
         </is>
       </c>
     </row>
